--- a/data/trans_dic/P18_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -690,67 +739,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>6,2%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>96,75%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 15,78</t>
+          <t>2,83; 16,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,23</t>
+          <t>1,06; 11,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,41; 100,0</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,8</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,94</t>
+          <t>2,36; 10,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 4,72</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,59</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>88,81; 97,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>3,64; 10,69</t>
-        </is>
-      </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,62</t>
+          <t>1,87; 10,76</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,76</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>93,72; 98,76</t>
+          <t>3,54; 10,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,9</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 6,34</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 3,87</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 6,53</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 4,89</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>1,81%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>98,29%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>97,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>8,11%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>98,11%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 20,35</t>
+          <t>5,32; 20,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 16,67</t>
+          <t>0,97; 13,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,71</t>
+          <t>0,47; 4,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,14</t>
+          <t>0,33; 3,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,28; 100,0</t>
+          <t>0,49; 6,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,37</t>
+          <t>0,0; 5,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,76</t>
+          <t>0,94; 9,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,88</t>
+          <t>3,7; 11,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,27</t>
+          <t>0,38; 4,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,17; 99,47</t>
+          <t>2,23; 8,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 13,23</t>
+          <t>0,38; 3,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,3</t>
+          <t>0,46; 4,08</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,49</t>
+          <t>0,57; 5,25</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,94</t>
+          <t>0,47; 4,33</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>96,01; 99,29</t>
+          <t>5,46; 13,59</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 8,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 5,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,76</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 4,38</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 4,18</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 5,53</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>3,35%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,06</t>
+          <t>3,46; 9,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,43</t>
+          <t>0,8; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,3</t>
+          <t>3,43; 8,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,61</t>
+          <t>1,02; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,8; 97,38</t>
+          <t>1,98; 8,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,59</t>
+          <t>2,57; 8,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,89</t>
+          <t>2,23; 9,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,82</t>
+          <t>1,72; 5,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,25</t>
+          <t>1,09; 4,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,04; 98,47</t>
+          <t>3,64; 8,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,14</t>
+          <t>2,88; 6,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,81</t>
+          <t>1,3; 5,68</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,26</t>
+          <t>1,71; 7,49</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,1</t>
+          <t>0,47; 3,97</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>93,52; 97,38</t>
+          <t>3,2; 6,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 3,98</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 7,83</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 5,11</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,52</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 6,59</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 5,47</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>14,89%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>6,08%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>92,18%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>12,52%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>5,11%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>92,8%</t>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,8</t>
+          <t>6,89; 13,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,94</t>
+          <t>1,94; 8,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,88</t>
+          <t>2,32; 7,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,3</t>
+          <t>2,27; 6,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,99; 96,25</t>
+          <t>2,45; 7,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,03</t>
+          <t>3,72; 11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,04</t>
+          <t>4,51; 12,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,64</t>
+          <t>11,47; 19,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,21</t>
+          <t>3,06; 8,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88,28; 95,34</t>
+          <t>3,82; 8,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,33</t>
+          <t>2,9; 7,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,85</t>
+          <t>2,1; 6,38</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,97</t>
+          <t>5,01; 11,71</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,08</t>
+          <t>6,51; 14,09</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>90,06; 95,03</t>
+          <t>9,8; 15,09</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 7,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 6,93</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 6,09</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 6,39</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 10,06</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 11,57</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>19,27%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,69%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>17,23%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>88,76%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,85</t>
+          <t>10,77; 20,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,87</t>
+          <t>1,44; 6,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,01</t>
+          <t>3,89; 11,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,99</t>
+          <t>4,0; 10,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,76; 95,5</t>
+          <t>2,81; 11,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,12</t>
+          <t>4,26; 14,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,08</t>
+          <t>4,4; 12,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,48</t>
+          <t>14,3; 24,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,64</t>
+          <t>4,75; 12,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80,2; 90,23</t>
+          <t>9,37; 17,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,72</t>
+          <t>4,6; 11,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,49</t>
+          <t>3,28; 11,0</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 13,63</t>
+          <t>9,47; 19,33</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,62</t>
+          <t>3,9; 10,78</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>84,91; 91,72</t>
+          <t>13,66; 20,7</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 8,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 13,61</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 9,86</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 8,94</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 14,61</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 10,08</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>26,87%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,03%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>23,36%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>91,59%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 24,91</t>
+          <t>13,9; 25,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 17,88</t>
+          <t>2,36; 15,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,17</t>
+          <t>4,64; 15,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,34</t>
+          <t>1,41; 6,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,49; 96,29</t>
+          <t>1,31; 8,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,77; 32,54</t>
+          <t>3,97; 13,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 18,09</t>
+          <t>2,84; 11,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 18,03</t>
+          <t>21,42; 32,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,72</t>
+          <t>8,27; 18,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>83,58; 95,26</t>
+          <t>9,55; 17,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,47; 27,26</t>
+          <t>7,29; 19,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,69</t>
+          <t>2,91; 11,96</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 15,67</t>
+          <t>4,68; 15,9</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,34</t>
+          <t>6,32; 16,95</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>87,08; 94,89</t>
+          <t>18,87; 26,95</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 15,51</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 15,32</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 12,54</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 8,94</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 13,31</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 12,9</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>12,01%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>93,88%</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,99</t>
+          <t>8,93; 13,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,25</t>
+          <t>2,31; 5,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,5</t>
+          <t>3,71; 6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,36</t>
+          <t>2,68; 4,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,18; 96,07</t>
+          <t>2,73; 5,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,62; 15,05</t>
+          <t>3,81; 6,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,01</t>
+          <t>3,89; 7,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 8,96</t>
+          <t>11,56; 15,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,3</t>
+          <t>4,32; 7,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,49</t>
+          <t>6,44; 8,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 13,33</t>
+          <t>4,09; 6,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,51</t>
+          <t>2,74; 5,07</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,36</t>
+          <t>5,57; 8,83</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,01</t>
+          <t>4,17; 7,27</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>92,76; 94,96</t>
+          <t>10,81; 13,29</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 5,62</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 7,26</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 5,43</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 4,77</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 7,28</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35346</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8556</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23853</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9641</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2652</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>60539</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18503</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>26505</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>11822</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14537; 83578</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33142</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5281; 58500</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 35168</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2778</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2497</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10936; 46279</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20958</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2158; 24318</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13309</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10900</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>700; 4025</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34546; 103336</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23994</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6407; 40572</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9284; 64290</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2156; 36517</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>1149; 5170</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>281; 4037</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53301</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24313</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10671</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7510</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13095</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34241</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7372</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22702</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6360</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9144</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>87542</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>31684</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>33373</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13870</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>22239</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29810; 113104</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5533; 78296</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2638; 26731</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1938; 21263</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2848; 38056</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2888</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>461; 4589</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19211; 57201</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1949; 20909</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11244; 42929</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1974; 17385</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2301; 20597</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>267; 2464</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>215; 1993</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>58916; 146725</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12183; 90490</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18759; 54971</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5441; 30574</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9307; 47558</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>686; 4047</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>1050; 5253</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41964</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15472</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39597</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16052</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28312</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2990</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18194</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42853</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32952</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19678</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>65174</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>33666</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>82450</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>49004</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>47990</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>3799</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23385; 66328</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5513; 31831</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23364; 61035</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6949; 32921</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13300; 55188</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1541; 5130</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1355; 5592</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11932; 40333</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7766; 34947</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26111; 61880</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20377; 49280</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9266; 40585</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>922; 4040</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>255; 2178</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>43810; 93476</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19054; 55739</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>57595; 109449</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>32842; 70953</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>28210; 76613</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>3055; 7501</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>2027; 6320</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63243</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26117</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26320</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25267</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31569</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103054</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34755</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40865</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31527</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26117</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5085</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>166298</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>60872</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>67185</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>56793</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>57686</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>7958</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>9446</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43842; 86253</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12482; 57393</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14891; 45141</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14438; 41582</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16156; 51996</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2166; 6738</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2544; 6925</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79394; 132282</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20712; 55462</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25655; 59761</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19078; 48266</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13816; 41910</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2615; 6116</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3469; 7510</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>130167; 200560</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>39675; 94640</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>47021; 91020</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>38097; 78751</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>37099; 84104</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>5594; 11109</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>7022; 12699</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>76990</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17861</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33498</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32857</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27911</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96447</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40588</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67247</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37192</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31424</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6759</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>173437</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>58449</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>100745</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>70049</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>59335</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>10449</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>6516</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54485; 104409</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7048; 33208</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18776; 54095</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19571; 52177</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13775; 58608</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1885; 6377</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1975; 5469</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71564; 124323</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23865; 65104</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>46622; 88700</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23043; 57644</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16845; 56516</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4618; 9427</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1810; 5006</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>137496; 208357</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>39294; 83289</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>75718; 133527</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>50382; 97668</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>36593; 89830</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>7482; 13583</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>4342; 9198</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>97975</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>32656</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44569</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16956</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22339</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3618</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2728</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>187442</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>88485</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>90240</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>75784</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>46315</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5653</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>285417</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>121140</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>134809</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>92739</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>68654</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>9271</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>9437</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>72905; 131222</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12229; 78750</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23950; 78195</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7440; 33283</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7347; 48146</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1859; 6482</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1288; 5036</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>149439; 226844</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>58551; 132589</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>64556; 120308</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>49233; 133716</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>20778; 85345</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2968; 10072</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3955; 10604</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>230645; 329334</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>83916; 190210</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>102396; 182645</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>63231; 150698</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>37738; 114105</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>5868; 14668</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>6194; 13914</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>368819</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>116419</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>163211</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>122494</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>132866</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15535</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15914</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>469588</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>195363</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>273853</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>186466</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>134859</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>21372</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>16978</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>838407</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>311782</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>437065</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>308960</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>267725</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>36908</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>32892</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>305190; 447609</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>78735; 188460</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>126646; 210416</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>91749; 164505</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>93776; 182660</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11466; 20783</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11692; 21243</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>412019; 536040</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>154964; 259977</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>230799; 322140</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>146192; 239911</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>98244; 181472</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>16861; 26711</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>12590; 21939</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>754568; 927794</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>251276; 393555</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>375316; 507570</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>254515; 380006</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>211738; 334556</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>30371; 43922</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>27156; 40137</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>